--- a/app/src/source_data/data.xlsx
+++ b/app/src/source_data/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/app/src/source_data/data.xlsx
+++ b/app/src/source_data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="157">
   <si>
     <t>id</t>
   </si>
@@ -73,53 +73,431 @@
     <t>W32</t>
   </si>
   <si>
-    <t>Pfadfindergruppe 32 Pax Hill</t>
-  </si>
-  <si>
     <t>uid</t>
   </si>
   <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>Pfadfindergruppe 1</t>
-  </si>
-  <si>
-    <t>W2</t>
-  </si>
-  <si>
-    <t>Pfadfindergruppe 2</t>
-  </si>
-  <si>
-    <t>W3</t>
-  </si>
-  <si>
-    <t>Pfadfindergruppe 3</t>
-  </si>
-  <si>
-    <t>W4</t>
-  </si>
-  <si>
-    <t>Pfadfindergruppe 4</t>
-  </si>
-  <si>
     <t>W5</t>
   </si>
   <si>
-    <t>Pfadfindergruppe 5</t>
-  </si>
-  <si>
     <t>W6</t>
   </si>
   <si>
-    <t>Pfadfindergruppe 6</t>
+    <t>ALTE</t>
+  </si>
+  <si>
+    <t>Altenstadt - Levis</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>Amstetten</t>
+  </si>
+  <si>
+    <t>ANI</t>
+  </si>
+  <si>
+    <t>Anif</t>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>Berndorf</t>
+  </si>
+  <si>
+    <t>BIE</t>
+  </si>
+  <si>
+    <t>Biedermannsdorf</t>
+  </si>
+  <si>
+    <t>BRU</t>
+  </si>
+  <si>
+    <t>Bruck / Leitha</t>
+  </si>
+  <si>
+    <t>BRUN</t>
+  </si>
+  <si>
+    <t>Brunn am Gebirge</t>
+  </si>
+  <si>
+    <t>DE-SDG</t>
+  </si>
+  <si>
+    <t>VCP e.V. Stamm Drei Gleichen, VDAPG e.V. Gilde Drei Gleichen &amp; ZHP Bydgoszcz</t>
+  </si>
+  <si>
+    <t>DORN</t>
+  </si>
+  <si>
+    <t>Dornbirn</t>
+  </si>
+  <si>
+    <t>FEL</t>
+  </si>
+  <si>
+    <t>Felixdorf</t>
+  </si>
+  <si>
+    <t>FELD</t>
+  </si>
+  <si>
+    <t>Feldkirch St. Georg</t>
+  </si>
+  <si>
+    <t>FRAUR</t>
+  </si>
+  <si>
+    <t>Frauental-Rassach</t>
+  </si>
+  <si>
+    <t>FRE</t>
+  </si>
+  <si>
+    <t>Freundorf-Baumgarten</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Graz 2</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>Gablitz</t>
+  </si>
+  <si>
+    <t>GB-LONG</t>
+  </si>
+  <si>
+    <t>Long Stratton - Norfolk</t>
+  </si>
+  <si>
+    <t>GB-SUR</t>
+  </si>
+  <si>
+    <t>Surrey East Guides</t>
+  </si>
+  <si>
+    <t>GB-WILT</t>
+  </si>
+  <si>
+    <t>Wiltshire North</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>Gloggnitz</t>
+  </si>
+  <si>
+    <t>GMUE</t>
+  </si>
+  <si>
+    <t>Gmünd</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Graz-Umgebung-Nord</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>Gumpoldskirchen</t>
+  </si>
+  <si>
+    <t>HIN</t>
+  </si>
+  <si>
+    <t>Hinterbrühl</t>
+  </si>
+  <si>
+    <t>HOL</t>
+  </si>
+  <si>
+    <t>Hollabrunn</t>
+  </si>
+  <si>
+    <t>HOR</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>IE-TAL</t>
+  </si>
+  <si>
+    <t>Mountpelier County</t>
+  </si>
+  <si>
+    <t>IL-ISC</t>
+  </si>
+  <si>
+    <t>Israel Scouts</t>
+  </si>
+  <si>
+    <t>IT-BR</t>
+  </si>
+  <si>
+    <t>Bruneck</t>
+  </si>
+  <si>
+    <t>IT-EPP</t>
+  </si>
+  <si>
+    <t>Pfadfinderstamm Eppan</t>
+  </si>
+  <si>
+    <t>KIE</t>
+  </si>
+  <si>
+    <t>Kierling - Gugging</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>Kirchberg / Wechsel</t>
+  </si>
+  <si>
+    <t>KLW</t>
+  </si>
+  <si>
+    <t>Klosterneuburg-Weidling</t>
+  </si>
+  <si>
+    <t>KOEN</t>
+  </si>
+  <si>
+    <t>Königstetten</t>
+  </si>
+  <si>
+    <t>KRI</t>
+  </si>
+  <si>
+    <t>Kritzendorf-Höflein</t>
+  </si>
+  <si>
+    <t>LAA</t>
+  </si>
+  <si>
+    <t>Laa an der Thaya</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>Langenlois</t>
+  </si>
+  <si>
+    <t>LIL</t>
+  </si>
+  <si>
+    <t>Lilienfeld</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Markersdorf - St. Martin</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>Maria Enzersdorf - Südstadt</t>
+  </si>
+  <si>
+    <t>MBS</t>
+  </si>
+  <si>
+    <t>Mauerbach - Steinbach</t>
+  </si>
+  <si>
+    <t>MEL</t>
+  </si>
+  <si>
+    <t>Maria Enzersdorf Liechtenstein</t>
+  </si>
+  <si>
+    <t>MOED</t>
+  </si>
+  <si>
+    <t>Mödling</t>
+  </si>
+  <si>
+    <t>MT-OBO</t>
+  </si>
+  <si>
+    <t>Malta Girl Guides - 18th Marasascala Unit</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Perchtoldsdorf</t>
+  </si>
+  <si>
+    <t>POEC</t>
+  </si>
+  <si>
+    <t>Pöchlarn</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>Salzburg 9</t>
+  </si>
+  <si>
+    <t>SCH</t>
+  </si>
+  <si>
+    <t>Schwechat</t>
+  </si>
+  <si>
+    <t>STO</t>
+  </si>
+  <si>
+    <t>Stockerau</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
+    <t>STPV</t>
+  </si>
+  <si>
+    <t>St. Pölten - Viehofen</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>Telfs</t>
+  </si>
+  <si>
+    <t>TRU</t>
+  </si>
+  <si>
+    <t>Trumau</t>
+  </si>
+  <si>
+    <t>TUL</t>
+  </si>
+  <si>
+    <t>Tulln</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>Wien 12 Erherzog Johann</t>
+  </si>
+  <si>
+    <t>W20</t>
+  </si>
+  <si>
+    <t>Wien 20/26</t>
+  </si>
+  <si>
+    <t>W28</t>
+  </si>
+  <si>
+    <t>Wien 28 'St. Georg-Kagran'</t>
+  </si>
+  <si>
+    <t>Wien 32 Pax Hill</t>
+  </si>
+  <si>
+    <t>W36</t>
+  </si>
+  <si>
+    <t>Wien 36</t>
+  </si>
+  <si>
+    <t>Wien 5</t>
+  </si>
+  <si>
+    <t>W55</t>
+  </si>
+  <si>
+    <t>Wien 55 Hugo v. Hoffmannsthal</t>
+  </si>
+  <si>
+    <t>Wien 6/7 'Paxtu'</t>
+  </si>
+  <si>
+    <t>W60</t>
+  </si>
+  <si>
+    <t>Wien 60</t>
+  </si>
+  <si>
+    <t>W66</t>
+  </si>
+  <si>
+    <t>Wien 66</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>Wien 8 Guy de Larigaudie</t>
+  </si>
+  <si>
+    <t>WIL</t>
+  </si>
+  <si>
+    <t>Wilhelmsburg</t>
+  </si>
+  <si>
+    <t>WN1</t>
+  </si>
+  <si>
+    <t>Wiener Neustadt 1</t>
+  </si>
+  <si>
+    <t>WN2</t>
+  </si>
+  <si>
+    <t>Wiener Neustadt 2</t>
+  </si>
+  <si>
+    <t>WRN</t>
+  </si>
+  <si>
+    <t>Wiener Neudorf</t>
+  </si>
+  <si>
+    <t>ZAM</t>
+  </si>
+  <si>
+    <t>Zams</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>Zwettl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +532,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,11 +560,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -517,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -648,13 +1032,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="1" t="s">
@@ -670,105 +1057,987 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="4">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16">
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16">
+      <c r="A24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16">
+      <c r="A25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16">
+      <c r="A26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16">
+      <c r="A27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16">
+      <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="4">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16">
+      <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="4">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16">
+      <c r="A30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="4">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16">
+      <c r="A31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16">
+      <c r="A32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16">
+      <c r="A34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16">
+      <c r="A35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="4">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16">
+      <c r="A36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16">
+      <c r="A37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="4">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16">
+      <c r="A38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16">
+      <c r="A39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="4">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16">
+      <c r="A40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="4">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16">
+      <c r="A41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="4">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16">
+      <c r="A42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16">
+      <c r="A43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="4">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16">
+      <c r="A44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16">
+      <c r="A45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16">
+      <c r="A46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="4">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16">
+      <c r="A47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="4">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16">
+      <c r="A48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="4">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16">
+      <c r="A49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16">
+      <c r="A50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="4">
+        <v>7</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16">
+      <c r="A51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="4">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16">
+      <c r="A52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="4">
+        <v>6</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16">
+      <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16">
+      <c r="A54" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="4">
+        <v>7</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16">
+      <c r="A55" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="4">
+        <v>15</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16">
+      <c r="A56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="4">
+        <v>7</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16">
+      <c r="A57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16">
+      <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="4">
         <v>18</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16">
+      <c r="A59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="4">
+        <v>25</v>
+      </c>
+      <c r="D59" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16">
+      <c r="A60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5</v>
+      </c>
+      <c r="D60" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16">
+      <c r="A61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="4">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16">
+      <c r="A62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+      <c r="B62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="4">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16">
+      <c r="A63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="4">
+        <v>21</v>
+      </c>
+      <c r="D63" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16">
+      <c r="A64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="4">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16">
+      <c r="A65" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="4">
+        <v>15</v>
+      </c>
+      <c r="D65" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16">
+      <c r="A66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="4">
+        <v>7</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16">
+      <c r="A67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="4">
+        <v>14</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16">
+      <c r="A68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="4">
+        <v>5</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16">
+      <c r="A69" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="4">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16">
+      <c r="A70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16">
+      <c r="A71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="4">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/source_data/data.xlsx
+++ b/app/src/source_data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>id</t>
   </si>
@@ -37,27 +37,6 @@
     <t>forum_url</t>
   </si>
   <si>
-    <t>Test Offsite Activitiy</t>
-  </si>
-  <si>
-    <t>http://offsiteactivities.prophpbb.com/forum3.html</t>
-  </si>
-  <si>
-    <t>OA1</t>
-  </si>
-  <si>
-    <t>OA2</t>
-  </si>
-  <si>
-    <t>OA3</t>
-  </si>
-  <si>
-    <t>OA4</t>
-  </si>
-  <si>
-    <t>OA5</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -491,6 +470,162 @@
   </si>
   <si>
     <t>Zwettl</t>
+  </si>
+  <si>
+    <t>OA01</t>
+  </si>
+  <si>
+    <t>Beat Boxing</t>
+  </si>
+  <si>
+    <t>OA02</t>
+  </si>
+  <si>
+    <t>Zauberwerkstatt / Magic workshop</t>
+  </si>
+  <si>
+    <t>OA03</t>
+  </si>
+  <si>
+    <t>Palettenmöbelbau / Do it yourself furniture</t>
+  </si>
+  <si>
+    <t>OA04</t>
+  </si>
+  <si>
+    <t>Lagerferzeremonie / Campfire ceremony</t>
+  </si>
+  <si>
+    <t>OA05</t>
+  </si>
+  <si>
+    <t>Sozialarbeit – Regenbogental / Socialwork – Regenbogental</t>
+  </si>
+  <si>
+    <t>OA06</t>
+  </si>
+  <si>
+    <t>Sozialarbeit – Kinderbetreuung / Socialwork child care</t>
+  </si>
+  <si>
+    <t>OA07</t>
+  </si>
+  <si>
+    <t>Orientierung einst und jetzt / Navigation now and then</t>
+  </si>
+  <si>
+    <t>OA08</t>
+  </si>
+  <si>
+    <t>Urgeschichte im nördlichen Niederösterreich / Prehistory in the north of Lower Austria</t>
+  </si>
+  <si>
+    <t>OA09</t>
+  </si>
+  <si>
+    <t>Geschichte der Pfadfinderbewegung in Österreich / History of boy scouts and girl guides in Austria</t>
+  </si>
+  <si>
+    <t>OA10</t>
+  </si>
+  <si>
+    <t>Wein – vom Berg in den Keller / wine – from the vineyard to the cellar</t>
+  </si>
+  <si>
+    <t>OA11</t>
+  </si>
+  <si>
+    <t>Die Kröte und der Wein / The toad and the wine</t>
+  </si>
+  <si>
+    <t>OA12</t>
+  </si>
+  <si>
+    <t>Laa und das Wasser / Laa and the water</t>
+  </si>
+  <si>
+    <t>OA13</t>
+  </si>
+  <si>
+    <t>Bierbrauen / Beerbrewing</t>
+  </si>
+  <si>
+    <t>OA14</t>
+  </si>
+  <si>
+    <t>Altstoffverwertung / Recycling</t>
+  </si>
+  <si>
+    <t>OA15</t>
+  </si>
+  <si>
+    <t>Eneergiegewinnung / Generation of energy</t>
+  </si>
+  <si>
+    <t>OA16</t>
+  </si>
+  <si>
+    <t>Hochseilgarten / High rope course</t>
+  </si>
+  <si>
+    <t>OA17</t>
+  </si>
+  <si>
+    <t>Segeln / Sailing</t>
+  </si>
+  <si>
+    <t>OA18</t>
+  </si>
+  <si>
+    <t>Wallfahrten im Weinviertel / Pilgrimage in the wine quarter (Lower Austria)</t>
+  </si>
+  <si>
+    <t>OA19</t>
+  </si>
+  <si>
+    <t>Die 2 Türme – Wandern / The 2 towers – hiking</t>
+  </si>
+  <si>
+    <t>OA20</t>
+  </si>
+  <si>
+    <t>Wanderung im Wienerwald / Hiking in the woods in the south of vienna</t>
+  </si>
+  <si>
+    <t>OA21</t>
+  </si>
+  <si>
+    <t>Flusswanderung / Riverhiking</t>
+  </si>
+  <si>
+    <t>OA22</t>
+  </si>
+  <si>
+    <t>Wandern am Schneeberg / Hiking on the Schneeberg</t>
+  </si>
+  <si>
+    <t>OA23</t>
+  </si>
+  <si>
+    <t>Klettern / Climbing</t>
+  </si>
+  <si>
+    <t>OA24</t>
+  </si>
+  <si>
+    <t>Radtour entlang des Wiener Neustädter Kanals / Biking along the canal from Vienna to Wiener Neustadt</t>
+  </si>
+  <si>
+    <t>OA25</t>
+  </si>
+  <si>
+    <t>Radtour um den Neusiedlersee / Biking around the Lake Neusiedl</t>
+  </si>
+  <si>
+    <t>OA26</t>
+  </si>
+  <si>
+    <t>Kanu Tour – March Au / Canoe tour – March floodplain</t>
   </si>
 </sst>
 </file>
@@ -555,9 +690,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
@@ -567,8 +703,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -899,15 +1036,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="100.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -927,99 +1064,376 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="4">
         <v>30</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="4">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="4">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D13" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="4">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="4">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="D16" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
+      <c r="A17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="4">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
+      <c r="A18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16">
+      <c r="A19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="4">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16">
+      <c r="A21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="4">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16">
+      <c r="A22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="4">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16">
+      <c r="A24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="4">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16">
+      <c r="A25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="4">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D25" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16">
+      <c r="A26" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16">
+      <c r="A27" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="4">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
+      <c r="D27" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1034,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D71"/>
     </sheetView>
   </sheetViews>
@@ -1045,27 +1459,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
@@ -1076,10 +1490,10 @@
     </row>
     <row r="3" spans="1:5" ht="16">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4">
         <v>17</v>
@@ -1090,10 +1504,10 @@
     </row>
     <row r="4" spans="1:5" ht="16">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -1104,10 +1518,10 @@
     </row>
     <row r="5" spans="1:5" ht="16">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
         <v>9</v>
@@ -1118,10 +1532,10 @@
     </row>
     <row r="6" spans="1:5" ht="16">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <v>6</v>
@@ -1132,10 +1546,10 @@
     </row>
     <row r="7" spans="1:5" ht="16">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4">
         <v>12</v>
@@ -1146,10 +1560,10 @@
     </row>
     <row r="8" spans="1:5" ht="16">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>11</v>
@@ -1160,10 +1574,10 @@
     </row>
     <row r="9" spans="1:5" ht="16">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4">
         <v>17</v>
@@ -1174,10 +1588,10 @@
     </row>
     <row r="10" spans="1:5" ht="16">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>15</v>
@@ -1188,10 +1602,10 @@
     </row>
     <row r="11" spans="1:5" ht="16">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
@@ -1202,10 +1616,10 @@
     </row>
     <row r="12" spans="1:5" ht="16">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>6</v>
@@ -1216,10 +1630,10 @@
     </row>
     <row r="13" spans="1:5" ht="16">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4">
         <v>15</v>
@@ -1230,10 +1644,10 @@
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
@@ -1244,10 +1658,10 @@
     </row>
     <row r="15" spans="1:5" ht="16">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -1258,10 +1672,10 @@
     </row>
     <row r="16" spans="1:5" ht="16">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -1272,10 +1686,10 @@
     </row>
     <row r="17" spans="1:4" ht="16">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4">
         <v>6</v>
@@ -1286,10 +1700,10 @@
     </row>
     <row r="18" spans="1:4" ht="16">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
@@ -1300,10 +1714,10 @@
     </row>
     <row r="19" spans="1:4" ht="16">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4">
         <v>8</v>
@@ -1314,10 +1728,10 @@
     </row>
     <row r="20" spans="1:4" ht="16">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4">
         <v>8</v>
@@ -1328,10 +1742,10 @@
     </row>
     <row r="21" spans="1:4" ht="16">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -1342,10 +1756,10 @@
     </row>
     <row r="22" spans="1:4" ht="16">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
@@ -1356,10 +1770,10 @@
     </row>
     <row r="23" spans="1:4" ht="16">
       <c r="A23" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4">
         <v>12</v>
@@ -1370,10 +1784,10 @@
     </row>
     <row r="24" spans="1:4" ht="16">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4">
         <v>11</v>
@@ -1384,10 +1798,10 @@
     </row>
     <row r="25" spans="1:4" ht="16">
       <c r="A25" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4">
         <v>6</v>
@@ -1398,10 +1812,10 @@
     </row>
     <row r="26" spans="1:4" ht="16">
       <c r="A26" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
@@ -1412,10 +1826,10 @@
     </row>
     <row r="27" spans="1:4" ht="16">
       <c r="A27" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4">
         <v>20</v>
@@ -1426,10 +1840,10 @@
     </row>
     <row r="28" spans="1:4" ht="16">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4">
         <v>20</v>
@@ -1440,10 +1854,10 @@
     </row>
     <row r="29" spans="1:4" ht="16">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4">
         <v>6</v>
@@ -1454,10 +1868,10 @@
     </row>
     <row r="30" spans="1:4" ht="16">
       <c r="A30" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C30" s="4">
         <v>7</v>
@@ -1468,10 +1882,10 @@
     </row>
     <row r="31" spans="1:4" ht="16">
       <c r="A31" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C31" s="4">
         <v>9</v>
@@ -1482,10 +1896,10 @@
     </row>
     <row r="32" spans="1:4" ht="16">
       <c r="A32" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4">
         <v>10</v>
@@ -1496,10 +1910,10 @@
     </row>
     <row r="33" spans="1:4" ht="16">
       <c r="A33" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
@@ -1510,10 +1924,10 @@
     </row>
     <row r="34" spans="1:4" ht="16">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
@@ -1524,10 +1938,10 @@
     </row>
     <row r="35" spans="1:4" ht="16">
       <c r="A35" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4">
         <v>7</v>
@@ -1538,10 +1952,10 @@
     </row>
     <row r="36" spans="1:4" ht="16">
       <c r="A36" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
@@ -1552,10 +1966,10 @@
     </row>
     <row r="37" spans="1:4" ht="16">
       <c r="A37" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C37" s="4">
         <v>7</v>
@@ -1566,10 +1980,10 @@
     </row>
     <row r="38" spans="1:4" ht="16">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1580,10 +1994,10 @@
     </row>
     <row r="39" spans="1:4" ht="16">
       <c r="A39" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4">
         <v>7</v>
@@ -1594,10 +2008,10 @@
     </row>
     <row r="40" spans="1:4" ht="16">
       <c r="A40" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
@@ -1608,10 +2022,10 @@
     </row>
     <row r="41" spans="1:4" ht="16">
       <c r="A41" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4">
         <v>6</v>
@@ -1622,10 +2036,10 @@
     </row>
     <row r="42" spans="1:4" ht="16">
       <c r="A42" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4">
         <v>11</v>
@@ -1636,10 +2050,10 @@
     </row>
     <row r="43" spans="1:4" ht="16">
       <c r="A43" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C43" s="4">
         <v>13</v>
@@ -1650,10 +2064,10 @@
     </row>
     <row r="44" spans="1:4" ht="16">
       <c r="A44" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C44" s="4">
         <v>11</v>
@@ -1664,10 +2078,10 @@
     </row>
     <row r="45" spans="1:4" ht="16">
       <c r="A45" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C45" s="4">
         <v>11</v>
@@ -1678,10 +2092,10 @@
     </row>
     <row r="46" spans="1:4" ht="16">
       <c r="A46" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C46" s="4">
         <v>7</v>
@@ -1692,10 +2106,10 @@
     </row>
     <row r="47" spans="1:4" ht="16">
       <c r="A47" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4">
         <v>6</v>
@@ -1706,10 +2120,10 @@
     </row>
     <row r="48" spans="1:4" ht="16">
       <c r="A48" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C48" s="4">
         <v>6</v>
@@ -1720,10 +2134,10 @@
     </row>
     <row r="49" spans="1:4" ht="16">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4">
         <v>4</v>
@@ -1734,10 +2148,10 @@
     </row>
     <row r="50" spans="1:4" ht="16">
       <c r="A50" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C50" s="4">
         <v>7</v>
@@ -1748,10 +2162,10 @@
     </row>
     <row r="51" spans="1:4" ht="16">
       <c r="A51" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C51" s="4">
         <v>12</v>
@@ -1762,10 +2176,10 @@
     </row>
     <row r="52" spans="1:4" ht="16">
       <c r="A52" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C52" s="4">
         <v>6</v>
@@ -1776,10 +2190,10 @@
     </row>
     <row r="53" spans="1:4" ht="16">
       <c r="A53" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C53" s="4">
         <v>5</v>
@@ -1790,10 +2204,10 @@
     </row>
     <row r="54" spans="1:4" ht="16">
       <c r="A54" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C54" s="4">
         <v>7</v>
@@ -1804,10 +2218,10 @@
     </row>
     <row r="55" spans="1:4" ht="16">
       <c r="A55" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C55" s="4">
         <v>15</v>
@@ -1818,10 +2232,10 @@
     </row>
     <row r="56" spans="1:4" ht="16">
       <c r="A56" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C56" s="4">
         <v>7</v>
@@ -1832,10 +2246,10 @@
     </row>
     <row r="57" spans="1:4" ht="16">
       <c r="A57" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C57" s="4">
         <v>11</v>
@@ -1846,10 +2260,10 @@
     </row>
     <row r="58" spans="1:4" ht="16">
       <c r="A58" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4">
         <v>18</v>
@@ -1860,10 +2274,10 @@
     </row>
     <row r="59" spans="1:4" ht="16">
       <c r="A59" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4">
         <v>25</v>
@@ -1874,10 +2288,10 @@
     </row>
     <row r="60" spans="1:4" ht="16">
       <c r="A60" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C60" s="4">
         <v>5</v>
@@ -1888,10 +2302,10 @@
     </row>
     <row r="61" spans="1:4" ht="16">
       <c r="A61" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C61" s="4">
         <v>14</v>
@@ -1902,10 +2316,10 @@
     </row>
     <row r="62" spans="1:4" ht="16">
       <c r="A62" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C62" s="4">
         <v>7</v>
@@ -1916,10 +2330,10 @@
     </row>
     <row r="63" spans="1:4" ht="16">
       <c r="A63" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C63" s="4">
         <v>21</v>
@@ -1930,10 +2344,10 @@
     </row>
     <row r="64" spans="1:4" ht="16">
       <c r="A64" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C64" s="4">
         <v>5</v>
@@ -1944,10 +2358,10 @@
     </row>
     <row r="65" spans="1:4" ht="16">
       <c r="A65" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C65" s="4">
         <v>15</v>
@@ -1958,10 +2372,10 @@
     </row>
     <row r="66" spans="1:4" ht="16">
       <c r="A66" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C66" s="4">
         <v>7</v>
@@ -1972,10 +2386,10 @@
     </row>
     <row r="67" spans="1:4" ht="16">
       <c r="A67" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C67" s="4">
         <v>14</v>
@@ -1986,10 +2400,10 @@
     </row>
     <row r="68" spans="1:4" ht="16">
       <c r="A68" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C68" s="4">
         <v>5</v>
@@ -2000,10 +2414,10 @@
     </row>
     <row r="69" spans="1:4" ht="16">
       <c r="A69" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
@@ -2014,10 +2428,10 @@
     </row>
     <row r="70" spans="1:4" ht="16">
       <c r="A70" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -2028,10 +2442,10 @@
     </row>
     <row r="71" spans="1:4" ht="16">
       <c r="A71" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C71" s="4">
         <v>10</v>

--- a/app/src/source_data/data.xlsx
+++ b/app/src/source_data/data.xlsx
@@ -481,129 +481,66 @@
     <t>OA02</t>
   </si>
   <si>
-    <t>Zauberwerkstatt / Magic workshop</t>
-  </si>
-  <si>
     <t>OA03</t>
   </si>
   <si>
-    <t>Palettenmöbelbau / Do it yourself furniture</t>
-  </si>
-  <si>
     <t>OA04</t>
   </si>
   <si>
-    <t>Lagerferzeremonie / Campfire ceremony</t>
-  </si>
-  <si>
     <t>OA05</t>
   </si>
   <si>
-    <t>Sozialarbeit – Regenbogental / Socialwork – Regenbogental</t>
-  </si>
-  <si>
     <t>OA06</t>
   </si>
   <si>
-    <t>Sozialarbeit – Kinderbetreuung / Socialwork child care</t>
-  </si>
-  <si>
     <t>OA07</t>
   </si>
   <si>
-    <t>Orientierung einst und jetzt / Navigation now and then</t>
-  </si>
-  <si>
     <t>OA08</t>
   </si>
   <si>
-    <t>Urgeschichte im nördlichen Niederösterreich / Prehistory in the north of Lower Austria</t>
-  </si>
-  <si>
     <t>OA09</t>
   </si>
   <si>
-    <t>Geschichte der Pfadfinderbewegung in Österreich / History of boy scouts and girl guides in Austria</t>
-  </si>
-  <si>
     <t>OA10</t>
   </si>
   <si>
-    <t>Wein – vom Berg in den Keller / wine – from the vineyard to the cellar</t>
-  </si>
-  <si>
     <t>OA11</t>
   </si>
   <si>
-    <t>Die Kröte und der Wein / The toad and the wine</t>
-  </si>
-  <si>
     <t>OA12</t>
   </si>
   <si>
-    <t>Laa und das Wasser / Laa and the water</t>
-  </si>
-  <si>
     <t>OA13</t>
   </si>
   <si>
-    <t>Bierbrauen / Beerbrewing</t>
-  </si>
-  <si>
     <t>OA14</t>
   </si>
   <si>
-    <t>Altstoffverwertung / Recycling</t>
-  </si>
-  <si>
     <t>OA15</t>
   </si>
   <si>
-    <t>Eneergiegewinnung / Generation of energy</t>
-  </si>
-  <si>
     <t>OA16</t>
   </si>
   <si>
-    <t>Hochseilgarten / High rope course</t>
-  </si>
-  <si>
     <t>OA17</t>
   </si>
   <si>
-    <t>Segeln / Sailing</t>
-  </si>
-  <si>
     <t>OA18</t>
   </si>
   <si>
-    <t>Wallfahrten im Weinviertel / Pilgrimage in the wine quarter (Lower Austria)</t>
-  </si>
-  <si>
     <t>OA19</t>
   </si>
   <si>
-    <t>Die 2 Türme – Wandern / The 2 towers – hiking</t>
-  </si>
-  <si>
     <t>OA20</t>
   </si>
   <si>
-    <t>Wanderung im Wienerwald / Hiking in the woods in the south of vienna</t>
-  </si>
-  <si>
     <t>OA21</t>
   </si>
   <si>
-    <t>Flusswanderung / Riverhiking</t>
-  </si>
-  <si>
     <t>OA22</t>
   </si>
   <si>
-    <t>Wandern am Schneeberg / Hiking on the Schneeberg</t>
-  </si>
-  <si>
     <t>OA23</t>
   </si>
   <si>
@@ -613,19 +550,82 @@
     <t>OA24</t>
   </si>
   <si>
-    <t>Radtour entlang des Wiener Neustädter Kanals / Biking along the canal from Vienna to Wiener Neustadt</t>
-  </si>
-  <si>
     <t>OA25</t>
   </si>
   <si>
-    <t>Radtour um den Neusiedlersee / Biking around the Lake Neusiedl</t>
-  </si>
-  <si>
     <t>OA26</t>
   </si>
   <si>
-    <t>Kanu Tour – March Au / Canoe tour – March floodplain</t>
+    <t>Magic workshop</t>
+  </si>
+  <si>
+    <t>Do it yourself furniture</t>
+  </si>
+  <si>
+    <t>Campfire ceremony</t>
+  </si>
+  <si>
+    <t>Socialwork – Regenbogental</t>
+  </si>
+  <si>
+    <t>Socialwork child care</t>
+  </si>
+  <si>
+    <t>Navigation now and then</t>
+  </si>
+  <si>
+    <t>Prehistory in the north of Lower Austria</t>
+  </si>
+  <si>
+    <t>History of boy scouts and girl guides in Austria</t>
+  </si>
+  <si>
+    <t>Wine – from the vineyard to the cellar</t>
+  </si>
+  <si>
+    <t>The toad and the wine</t>
+  </si>
+  <si>
+    <t>Laa and the water</t>
+  </si>
+  <si>
+    <t>Beerbrewing</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>Generation of energy</t>
+  </si>
+  <si>
+    <t>High rope course</t>
+  </si>
+  <si>
+    <t>Sailing</t>
+  </si>
+  <si>
+    <t>Pilgrimage in the wine quarter (Lower Austria)</t>
+  </si>
+  <si>
+    <t>The 2 towers – hiking</t>
+  </si>
+  <si>
+    <t>Hiking in the woods in the south of vienna</t>
+  </si>
+  <si>
+    <t>Riverhiking</t>
+  </si>
+  <si>
+    <t>Hiking on the Schneeberg</t>
+  </si>
+  <si>
+    <t>Biking along the canal from Vienna to Wiener Neustadt</t>
+  </si>
+  <si>
+    <t>Biking around the Lake Neusiedl</t>
+  </si>
+  <si>
+    <t>Canoe tour – March floodplain</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1090,13 +1090,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="16">
       <c r="A4" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4">
         <v>20</v>
@@ -1105,13 +1105,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="16">
       <c r="A5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="4">
         <v>20</v>
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="16">
       <c r="A6" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" s="4">
         <v>20</v>
@@ -1135,13 +1135,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="16">
       <c r="A7" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B7" s="4">
         <v>20</v>
@@ -1150,12 +1150,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16">
       <c r="A8" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B8" s="4">
         <v>15</v>
@@ -1164,12 +1164,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16">
       <c r="A9" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B9" s="4">
         <v>25</v>
@@ -1178,12 +1178,12 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16">
       <c r="A10" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B10" s="4">
         <v>30</v>
@@ -1192,12 +1192,12 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16">
       <c r="A11" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B11" s="4">
         <v>30</v>
@@ -1206,12 +1206,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
       <c r="A12" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B12" s="4">
         <v>30</v>
@@ -1220,12 +1220,12 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16">
       <c r="A13" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B13" s="4">
         <v>15</v>
@@ -1234,12 +1234,12 @@
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B14" s="4">
         <v>25</v>
@@ -1248,12 +1248,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16">
       <c r="A15" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B15" s="4">
         <v>25</v>
@@ -1262,12 +1262,12 @@
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16">
       <c r="A16" s="4" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B16" s="4">
         <v>30</v>
@@ -1276,12 +1276,12 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16">
       <c r="A17" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B17" s="4">
         <v>30</v>
@@ -1290,12 +1290,12 @@
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16">
       <c r="A18" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B18" s="4">
         <v>20</v>
@@ -1304,12 +1304,12 @@
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16">
       <c r="A19" s="4" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B19" s="4">
         <v>15</v>
@@ -1318,12 +1318,12 @@
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
       <c r="A20" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B20" s="4">
         <v>30</v>
@@ -1332,12 +1332,12 @@
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16">
       <c r="A21" s="4" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B21" s="4">
         <v>30</v>
@@ -1346,12 +1346,12 @@
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16">
       <c r="A22" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B22" s="4">
         <v>15</v>
@@ -1360,12 +1360,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
       <c r="A23" s="4" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B23" s="4">
         <v>20</v>
@@ -1374,12 +1374,12 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16">
       <c r="A24" s="4" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B24" s="4">
         <v>30</v>
@@ -1388,12 +1388,12 @@
         <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16">
       <c r="A25" s="4" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B25" s="4">
         <v>25</v>
@@ -1402,12 +1402,12 @@
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16">
       <c r="A26" s="4" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B26" s="4">
         <v>25</v>
@@ -1416,12 +1416,12 @@
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16">
       <c r="A27" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B27" s="4">
         <v>15</v>

--- a/app/src/source_data/data.xlsx
+++ b/app/src/source_data/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="5800" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
@@ -1039,12 +1039,12 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -1069,10 +1069,10 @@
         <v>150</v>
       </c>
       <c r="B2" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>151</v>
@@ -1084,10 +1084,10 @@
         <v>152</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>178</v>
@@ -1099,10 +1099,10 @@
         <v>153</v>
       </c>
       <c r="B4" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>179</v>
@@ -1114,7 +1114,7 @@
         <v>154</v>
       </c>
       <c r="B5" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -1129,10 +1129,10 @@
         <v>155</v>
       </c>
       <c r="B6" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>181</v>
@@ -1144,10 +1144,10 @@
         <v>156</v>
       </c>
       <c r="B7" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>182</v>
@@ -1158,10 +1158,10 @@
         <v>157</v>
       </c>
       <c r="B8" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>183</v>
@@ -1203,7 +1203,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>186</v>
@@ -1217,7 +1217,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>187</v>
@@ -1231,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>188</v>
@@ -1273,7 +1273,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>191</v>
@@ -1287,7 +1287,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>192</v>
@@ -1301,7 +1301,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>193</v>
@@ -1329,7 +1329,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>195</v>
@@ -1343,7 +1343,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>196</v>
@@ -1357,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>197</v>
@@ -1371,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>198</v>
@@ -1396,10 +1396,10 @@
         <v>175</v>
       </c>
       <c r="B25" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>199</v>
@@ -1410,10 +1410,10 @@
         <v>176</v>
       </c>
       <c r="B26" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>200</v>
@@ -1427,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>201</v>
